--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_ETH-USDT_1d/equity_curve.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_ETH-USDT_1d/equity_curve.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -552,954 +552,954 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1599.449540813386</v>
+        <v>999.4495408133864</v>
       </c>
       <c r="B21">
-        <v>0.000344036991633434</v>
+        <v>0.0005504591866135611</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>1598.689095218599</v>
+        <v>998.6890952185988</v>
       </c>
       <c r="B22">
-        <v>0.0008193154883757714</v>
+        <v>0.001310904781401168</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1595.557005186498</v>
+        <v>995.5570051864981</v>
       </c>
       <c r="B23">
-        <v>0.002776871758438659</v>
+        <v>0.004442994813501855</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1594.513120491922</v>
+        <v>994.5131204919219</v>
       </c>
       <c r="B24">
-        <v>0.003429299692548793</v>
+        <v>0.005486879508078135</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1595.352532763898</v>
+        <v>995.3525327638984</v>
       </c>
       <c r="B25">
-        <v>0.002904667022563534</v>
+        <v>0.004647467236101654</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1596.954722006738</v>
+        <v>996.9547220067382</v>
       </c>
       <c r="B26">
-        <v>0.001903298745788651</v>
+        <v>0.003045277993261819</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1596.518107076108</v>
+        <v>996.5181070761084</v>
       </c>
       <c r="B27">
-        <v>0.002176183077432281</v>
+        <v>0.003481892923891561</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1597.901516576231</v>
+        <v>997.9015165762305</v>
       </c>
       <c r="B28">
-        <v>0.001311552139855898</v>
+        <v>0.002098483423769504</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1594.390053530157</v>
+        <v>994.3900535301566</v>
       </c>
       <c r="B29">
-        <v>0.00350621654365213</v>
+        <v>0.005609946469843363</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1592.188432116926</v>
+        <v>992.1884321169257</v>
       </c>
       <c r="B30">
-        <v>0.004882229926921444</v>
+        <v>0.007811567883074355</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1594.217591722429</v>
+        <v>994.2175917224288</v>
       </c>
       <c r="B31">
-        <v>0.003614005173481982</v>
+        <v>0.00578240827757126</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1594.648267646253</v>
+        <v>994.6482676462531</v>
       </c>
       <c r="B32">
-        <v>0.003344832721091873</v>
+        <v>0.005351732353746863</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>1590.958726008356</v>
+        <v>990.9587260083556</v>
       </c>
       <c r="B33">
-        <v>0.005650796244777712</v>
+        <v>0.00904127399164445</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>1591.775563736379</v>
+        <v>991.7755637363791</v>
       </c>
       <c r="B34">
-        <v>0.005140272664763024</v>
+        <v>0.008224436263620905</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>1593.472518046319</v>
+        <v>993.4725180463195</v>
       </c>
       <c r="B35">
-        <v>0.004079676221050321</v>
+        <v>0.006527481953680581</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>1592.826237221181</v>
+        <v>992.8262372211814</v>
       </c>
       <c r="B36">
-        <v>0.004483601736761655</v>
+        <v>0.007173762778818649</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>1591.949718792856</v>
+        <v>991.9497187928557</v>
       </c>
       <c r="B37">
-        <v>0.005031425754465135</v>
+        <v>0.008050281207144239</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>1592.845526357114</v>
+        <v>992.8455263571143</v>
       </c>
       <c r="B38">
-        <v>0.004471546026803552</v>
+        <v>0.007154473642885684</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1592.466153343141</v>
+        <v>992.4661533431411</v>
       </c>
       <c r="B39">
-        <v>0.004708654160536785</v>
+        <v>0.007533846656858967</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>1592.684405525148</v>
+        <v>992.6844055251479</v>
       </c>
       <c r="B40">
-        <v>0.004572246546782566</v>
+        <v>0.007315594474852083</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>1593.420257945478</v>
+        <v>993.4202579454779</v>
       </c>
       <c r="B41">
-        <v>0.004112338784076242</v>
+        <v>0.006579742054522053</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>1593.053075690687</v>
+        <v>993.0530756906867</v>
       </c>
       <c r="B42">
-        <v>0.00434182769332081</v>
+        <v>0.006946924309313318</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>1594.451215823114</v>
+        <v>994.4512158231139</v>
       </c>
       <c r="B43">
-        <v>0.003467990110553765</v>
+        <v>0.00554878417688609</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>1593.761687655866</v>
+        <v>993.7616876558661</v>
       </c>
       <c r="B44">
-        <v>0.003898945215083716</v>
+        <v>0.006238312344133856</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>1594.275468607366</v>
+        <v>994.2754686073661</v>
       </c>
       <c r="B45">
-        <v>0.003577832120396196</v>
+        <v>0.005724531392633958</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>1593.944005687654</v>
+        <v>993.944005687654</v>
       </c>
       <c r="B46">
-        <v>0.003784996445216238</v>
+        <v>0.006055994312346047</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1593.664907117307</v>
+        <v>993.6649071173072</v>
       </c>
       <c r="B47">
-        <v>0.003959433051683003</v>
+        <v>0.00633509288269285</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>1591.073418338716</v>
+        <v>991.073418338716</v>
       </c>
       <c r="B48">
-        <v>0.005579113538302538</v>
+        <v>0.008926581661284017</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>1587.187695510507</v>
+        <v>987.1876955105066</v>
       </c>
       <c r="B49">
-        <v>0.00800769030593329</v>
+        <v>0.01281230448949333</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>1589.053987391114</v>
+        <v>989.0539873911142</v>
       </c>
       <c r="B50">
-        <v>0.006841257880553564</v>
+        <v>0.01094601260888584</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>1588.274242289186</v>
+        <v>988.2742422891855</v>
       </c>
       <c r="B51">
-        <v>0.007328598569258937</v>
+        <v>0.01172575771081452</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>1590.381960876107</v>
+        <v>990.3819608761072</v>
       </c>
       <c r="B52">
-        <v>0.00601127445243288</v>
+        <v>0.009618039123892808</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>1591.862389214158</v>
+        <v>991.862389214158</v>
       </c>
       <c r="B53">
-        <v>0.005086006741151117</v>
+        <v>0.008137610785841964</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>1590.390218026757</v>
+        <v>990.3902180267572</v>
       </c>
       <c r="B54">
-        <v>0.006006113733276641</v>
+        <v>0.009609781973242804</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>1590.843812711358</v>
+        <v>990.8438127113581</v>
       </c>
       <c r="B55">
-        <v>0.005722617055401114</v>
+        <v>0.009156187288641982</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>1585.074075944543</v>
+        <v>985.0740759445429</v>
       </c>
       <c r="B56">
-        <v>0.009328702534660671</v>
+        <v>0.01492592405545712</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>1581.915933854699</v>
+        <v>981.9159338546991</v>
       </c>
       <c r="B57">
-        <v>0.01130254134081299</v>
+        <v>0.01808406614530089</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>1577.017277248025</v>
+        <v>977.0172772480249</v>
       </c>
       <c r="B58">
-        <v>0.01436420171998432</v>
+        <v>0.0229827227519751</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>1574.225635893464</v>
+        <v>974.2256358934641</v>
       </c>
       <c r="B59">
-        <v>0.01610897756658491</v>
+        <v>0.02577436410653589</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>1575.901703841806</v>
+        <v>975.9017038418054</v>
       </c>
       <c r="B60">
-        <v>0.01506143509887148</v>
+        <v>0.02409829615819459</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>1574.266457445741</v>
+        <v>974.2664574457407</v>
       </c>
       <c r="B61">
-        <v>0.01608346409641204</v>
+        <v>0.0257335425542593</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>1577.97260285151</v>
+        <v>977.97260285151</v>
       </c>
       <c r="B62">
-        <v>0.01376712321780615</v>
+        <v>0.02202739714849</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1581.076946861863</v>
+        <v>981.0769468618631</v>
       </c>
       <c r="B63">
-        <v>0.01182690821133547</v>
+        <v>0.01892305313813691</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>1577.993611462236</v>
+        <v>977.9936114622354</v>
       </c>
       <c r="B64">
-        <v>0.01375399283610279</v>
+        <v>0.0220063885377646</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>1579.570326335549</v>
+        <v>979.5703263355493</v>
       </c>
       <c r="B65">
-        <v>0.01276854604028155</v>
+        <v>0.0204296736644507</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>1580.00975585711</v>
+        <v>980.00975585711</v>
       </c>
       <c r="B66">
-        <v>0.01249390258930616</v>
+        <v>0.01999024414288997</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>1580.501576788545</v>
+        <v>980.5015767885446</v>
       </c>
       <c r="B67">
-        <v>0.01218651450715957</v>
+        <v>0.01949842321145534</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>1577.263423330903</v>
+        <v>977.263423330903</v>
       </c>
       <c r="B68">
-        <v>0.01421036041818557</v>
+        <v>0.02273657666909701</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>1576.087679631829</v>
+        <v>976.0876796318292</v>
       </c>
       <c r="B69">
-        <v>0.0149452002301067</v>
+        <v>0.0239123203681707</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>1573.065841297984</v>
+        <v>973.0658412979841</v>
       </c>
       <c r="B70">
-        <v>0.01683384918875985</v>
+        <v>0.02693415870201588</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>1569.830276589274</v>
+        <v>969.8302765892744</v>
       </c>
       <c r="B71">
-        <v>0.01885607713170345</v>
+        <v>0.03016972341072566</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>1552.843731264949</v>
+        <v>952.8437312649488</v>
       </c>
       <c r="B72">
-        <v>0.02947266795940695</v>
+        <v>0.04715626873505119</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>1546.729706983447</v>
+        <v>946.729706983447</v>
       </c>
       <c r="B73">
-        <v>0.03329393313534557</v>
+        <v>0.05327029301655295</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>1551.701450447917</v>
+        <v>951.701450447917</v>
       </c>
       <c r="B74">
-        <v>0.03018659347005181</v>
+        <v>0.04829854955208301</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>1547.792424063563</v>
+        <v>947.7924240635633</v>
       </c>
       <c r="B75">
-        <v>0.03262973496027288</v>
+        <v>0.05220757593643666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>1548.55839369762</v>
+        <v>948.5583936976194</v>
       </c>
       <c r="B76">
-        <v>0.03215100393898784</v>
+        <v>0.05144160630238059</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>1548.721464018703</v>
+        <v>948.7214640187025</v>
       </c>
       <c r="B77">
-        <v>0.03204908498831083</v>
+        <v>0.0512785359812975</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>1547.202854494929</v>
+        <v>947.2028544949293</v>
       </c>
       <c r="B78">
-        <v>0.0329982159406691</v>
+        <v>0.05279714550507075</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>1551.935860018611</v>
+        <v>951.9358600186109</v>
       </c>
       <c r="B79">
-        <v>0.03004008748836806</v>
+        <v>0.04806413998138903</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>1554.148305516124</v>
+        <v>954.1483055161237</v>
       </c>
       <c r="B80">
-        <v>0.02865730905242259</v>
+        <v>0.04585169448387627</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>1554.158107142329</v>
+        <v>954.1581071423292</v>
       </c>
       <c r="B81">
-        <v>0.02865118303604419</v>
+        <v>0.04584189285767082</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>1557.500298123241</v>
+        <v>957.5002981232404</v>
       </c>
       <c r="B82">
-        <v>0.02656231367297468</v>
+        <v>0.04249970187675955</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>1561.431673149943</v>
+        <v>961.4316731499433</v>
       </c>
       <c r="B83">
-        <v>0.02410520428128538</v>
+        <v>0.03856832685005673</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>1555.314645483166</v>
+        <v>955.314645483166</v>
       </c>
       <c r="B84">
-        <v>0.02792834657302123</v>
+        <v>0.04468535451683397</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>1556.156196399599</v>
+        <v>956.1561963995994</v>
       </c>
       <c r="B85">
-        <v>0.02740237725025041</v>
+        <v>0.04384380360040063</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>1573.199455066592</v>
+        <v>973.1994550665916</v>
       </c>
       <c r="B86">
-        <v>0.01675034058338032</v>
+        <v>0.02680054493340844</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>1574.204306914479</v>
+        <v>974.2043069144786</v>
       </c>
       <c r="B87">
-        <v>0.01612230817845084</v>
+        <v>0.02579569308552143</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>1576.613445027739</v>
+        <v>976.6134450277389</v>
       </c>
       <c r="B88">
-        <v>0.01461659685766326</v>
+        <v>0.02338655497226116</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>1581.437435938984</v>
+        <v>981.4374359389842</v>
       </c>
       <c r="B89">
-        <v>0.01160160253813491</v>
+        <v>0.01856256406101575</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>1580.124177648693</v>
+        <v>980.1241776486934</v>
       </c>
       <c r="B90">
-        <v>0.0124223889695666</v>
+        <v>0.01987582235130658</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>1589.326005758673</v>
+        <v>986.5073772072859</v>
       </c>
       <c r="B91">
-        <v>0.006671246400829278</v>
+        <v>0.01349262279271413</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>1576.861606718928</v>
+        <v>977.0776392817564</v>
       </c>
       <c r="B92">
-        <v>0.01446149580067013</v>
+        <v>0.02292236071824361</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>1566.323730708987</v>
+        <v>969.105380952365</v>
       </c>
       <c r="B93">
-        <v>0.02104766830688332</v>
+        <v>0.03089461904763502</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>1565.694151701361</v>
+        <v>968.629083216197</v>
       </c>
       <c r="B94">
-        <v>0.02144115518664935</v>
+        <v>0.03137091678380299</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>1562.222713978917</v>
+        <v>966.002823591239</v>
       </c>
       <c r="B95">
-        <v>0.02361080376317715</v>
+        <v>0.03399717640876099</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>1566.484407903582</v>
+        <v>969.2269386649199</v>
       </c>
       <c r="B96">
-        <v>0.02094724506026124</v>
+        <v>0.03077306133508007</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>1584.933490784794</v>
+        <v>983.1842916011877</v>
       </c>
       <c r="B97">
-        <v>0.009416568259503655</v>
+        <v>0.0168157083988123</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>1580.482780160338</v>
+        <v>979.8171790242262</v>
       </c>
       <c r="B98">
-        <v>0.01219826239978883</v>
+        <v>0.02018282097577373</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>1563.730535985857</v>
+        <v>967.1435417532988</v>
       </c>
       <c r="B99">
-        <v>0.02266841500883909</v>
+        <v>0.03285645824670125</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>1555.559766979844</v>
+        <v>960.9620796442099</v>
       </c>
       <c r="B100">
-        <v>0.02777514563759775</v>
+        <v>0.03903792035579012</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>1554.407467098862</v>
+        <v>960.0903259515829</v>
       </c>
       <c r="B101">
-        <v>0.02849533306321117</v>
+        <v>0.03990967404841705</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>1544.110238553912</v>
+        <v>952.3001255393095</v>
       </c>
       <c r="B102">
-        <v>0.03493110090380525</v>
+        <v>0.04769987446069046</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>1540.186625393063</v>
+        <v>949.3317799568243</v>
       </c>
       <c r="B103">
-        <v>0.03738335912933566</v>
+        <v>0.05066822004317562</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>1545.14985206905</v>
+        <v>953.0866281986304</v>
       </c>
       <c r="B104">
-        <v>0.03428134245684367</v>
+        <v>0.04691337180136967</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>1541.036485554606</v>
+        <v>949.9747278094359</v>
       </c>
       <c r="B105">
-        <v>0.03685219652837135</v>
+        <v>0.05002527219056407</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>1542.23530295673</v>
+        <v>950.8816735744543</v>
       </c>
       <c r="B106">
-        <v>0.03610293565204359</v>
+        <v>0.0491183264255457</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>1554.760800929696</v>
+        <v>960.3576349020071</v>
       </c>
       <c r="B107">
-        <v>0.02827449941894034</v>
+        <v>0.0396423650979929</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>1555.559051992327</v>
+        <v>960.9615387320586</v>
       </c>
       <c r="B108">
-        <v>0.02777559250479555</v>
+        <v>0.03903846126794142</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>1543.73220515433</v>
+        <v>952.0141305327483</v>
       </c>
       <c r="B109">
-        <v>0.0351673717785439</v>
+        <v>0.0479858694672517</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>1565.84464574042</v>
+        <v>968.7429370284148</v>
       </c>
       <c r="B110">
-        <v>0.02134709641223764</v>
+        <v>0.03125706297158526</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>1569.870783777863</v>
+        <v>971.7888461351462</v>
       </c>
       <c r="B111">
-        <v>0.01883076013883567</v>
+        <v>0.02821115386485384</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>1567.228984817833</v>
+        <v>969.660880727715</v>
       </c>
       <c r="B112">
-        <v>0.02048188448885457</v>
+        <v>0.03033911927228494</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>1557.11038236317</v>
+        <v>961.547869129128</v>
       </c>
       <c r="B113">
-        <v>0.02680601102301849</v>
+        <v>0.03845213087087196</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>1538.18862824139</v>
+        <v>946.3765634726949</v>
       </c>
       <c r="B114">
-        <v>0.03863210734913125</v>
+        <v>0.05362343652730506</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>1542.032971158594</v>
+        <v>949.458925766892</v>
       </c>
       <c r="B115">
-        <v>0.0362293930258788</v>
+        <v>0.05054107423310805</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>1531.865293458074</v>
+        <v>941.3065660428472</v>
       </c>
       <c r="B116">
-        <v>0.04258419158870352</v>
+        <v>0.05869343395715287</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>1526.492112919658</v>
+        <v>936.9983944129415</v>
       </c>
       <c r="B117">
-        <v>0.04594242942521343</v>
+        <v>0.06300160558705847</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>1534.069208458036</v>
+        <v>943.0736468266912</v>
       </c>
       <c r="B118">
-        <v>0.04120674471372743</v>
+        <v>0.05692635317330885</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>1547.554388746589</v>
+        <v>953.8859526347585</v>
       </c>
       <c r="B119">
-        <v>0.03277850703338159</v>
+        <v>0.0461140473652415</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>1536.813403591484</v>
+        <v>945.2739197444387</v>
       </c>
       <c r="B120">
-        <v>0.03949162275532259</v>
+        <v>0.05472608025556136</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>1532.36269928512</v>
+        <v>941.7053819131322</v>
       </c>
       <c r="B121">
-        <v>0.04227331294680015</v>
+        <v>0.05829461808686776</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>1533.428941503137</v>
+        <v>942.5602860879369</v>
       </c>
       <c r="B122">
-        <v>0.04160691156053919</v>
+        <v>0.05743971391206315</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>1528.682614728779</v>
+        <v>938.7547206115194</v>
       </c>
       <c r="B123">
-        <v>0.04457336579451332</v>
+        <v>0.06124527938848068</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>1535.269396290153</v>
+        <v>944.0359474849172</v>
       </c>
       <c r="B124">
-        <v>0.04045662731865418</v>
+        <v>0.05596405251508285</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>1537.798368260235</v>
+        <v>946.0636562537618</v>
       </c>
       <c r="B125">
-        <v>0.03887601983735334</v>
+        <v>0.05393634374623824</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>1551.736323580116</v>
+        <v>957.2389933299489</v>
       </c>
       <c r="B126">
-        <v>0.03016479776242742</v>
+        <v>0.04276100667005112</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>1555.139548167557</v>
+        <v>959.9676706027456</v>
       </c>
       <c r="B127">
-        <v>0.02803778239527721</v>
+        <v>0.04003232939725443</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>1566.480640545458</v>
+        <v>969.0608644914098</v>
       </c>
       <c r="B128">
-        <v>0.02094959965908894</v>
+        <v>0.03093913550859018</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>1567.545099660724</v>
+        <v>969.9143389892049</v>
       </c>
       <c r="B129">
-        <v>0.02028431271204723</v>
+        <v>0.03008566101079513</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>1559.556320294708</v>
+        <v>963.5090018939443</v>
       </c>
       <c r="B130">
-        <v>0.02527729981580751</v>
+        <v>0.03649099810605572</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>1562.114779993862</v>
+        <v>965.5603536796041</v>
       </c>
       <c r="B131">
-        <v>0.02367826250383631</v>
+        <v>0.03443964632039598</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>1569.223930820793</v>
+        <v>971.2604119014211</v>
       </c>
       <c r="B132">
-        <v>0.01923504323700442</v>
+        <v>0.02873958809857891</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>1576.202183707684</v>
+        <v>977.0640886250205</v>
       </c>
       <c r="B133">
-        <v>0.01487363518269735</v>
+        <v>0.02293591137497952</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>1584.119269802302</v>
+        <v>983.6579223695464</v>
       </c>
       <c r="B134">
-        <v>0.009925456373561126</v>
+        <v>0.01634207763045359</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>1583.206377728909</v>
+        <v>982.8976099911399</v>
       </c>
       <c r="B135">
-        <v>0.01049601391943167</v>
+        <v>0.01710239000886005</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>1587.745273961753</v>
+        <v>986.6778805080123</v>
       </c>
       <c r="B136">
-        <v>0.00765920377390461</v>
+        <v>0.01332211949198769</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>1603.699092610806</v>
+        <v>999.9651968899436</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137" s="2">
-        <v>117</v>
+        <v>3.480311005632508E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>1607.645973994464</v>
+        <v>1003.252401215143</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
+      <c r="C138" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>1614.80377374503</v>
+        <v>1009.213854831762</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1507,1838 +1507,1829 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>1612.982182796627</v>
+        <v>1007.652807229764</v>
       </c>
       <c r="B140">
-        <v>0.001128057153457318</v>
+        <v>0.001546795651411359</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>1600.426857050091</v>
+        <v>998.7985098246228</v>
       </c>
       <c r="B141">
-        <v>0.008903197359761195</v>
+        <v>0.01032025566957295</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>1621.340355570942</v>
+        <v>1005.416485685457</v>
       </c>
       <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142" s="2">
-        <v>3</v>
+        <v>0.003762700173134292</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>1619.962989266545</v>
+        <v>1004.980624753584</v>
       </c>
       <c r="B143">
-        <v>0.0008495232353065152</v>
+        <v>0.004194581810298192</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>1629.371033366352</v>
+        <v>1007.957754987825</v>
       </c>
       <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144" s="2">
-        <v>2</v>
+        <v>0.001244631985503397</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>1629.080855663449</v>
+        <v>1007.865929651607</v>
       </c>
       <c r="B145">
-        <v>0.0001780918507580109</v>
+        <v>0.001335618980755404</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>1615.534648593098</v>
+        <v>1003.57929768001</v>
       </c>
       <c r="B146">
-        <v>0.008491856360468009</v>
+        <v>0.005583115139349393</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>1593.815326761513</v>
+        <v>990.9857027332973</v>
       </c>
       <c r="B147">
-        <v>0.02182173726961389</v>
+        <v>0.0180617339042608</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>1596.90190405777</v>
+        <v>994.0722800295543</v>
       </c>
       <c r="B148">
-        <v>0.01992740060040232</v>
+        <v>0.01500333624009909</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>1595.071415018348</v>
+        <v>992.2417909901333</v>
       </c>
       <c r="B149">
-        <v>0.02105083350913595</v>
+        <v>0.01681711340007108</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>1598.552495073585</v>
+        <v>995.7228710453701</v>
       </c>
       <c r="B150">
-        <v>0.01891437718092637</v>
+        <v>0.01336781468248938</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>1595.631613325386</v>
+        <v>992.8019892971706</v>
       </c>
       <c r="B151">
-        <v>0.02070702089950582</v>
+        <v>0.01626202955500167</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>1583.886024963169</v>
+        <v>981.0564009349537</v>
       </c>
       <c r="B152">
-        <v>0.0279156849310187</v>
+        <v>0.02790038381062665</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>1586.406619500427</v>
+        <v>983.5769954722118</v>
       </c>
       <c r="B153">
-        <v>0.02636871098485094</v>
+        <v>0.0254028016329837</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>1591.173243057041</v>
+        <v>988.3436190288257</v>
       </c>
       <c r="B154">
-        <v>0.02344327321837369</v>
+        <v>0.02067969608524178</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>1586.107850205211</v>
+        <v>983.2782261769962</v>
       </c>
       <c r="B155">
-        <v>0.02655207578580632</v>
+        <v>0.02569884324377336</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>1587.085171770363</v>
+        <v>984.2555477421474</v>
       </c>
       <c r="B156">
-        <v>0.02595226055334077</v>
+        <v>0.02473044436530758</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>1588.070895683079</v>
+        <v>985.2412716548633</v>
       </c>
       <c r="B157">
-        <v>0.02534728851656698</v>
+        <v>0.0237537198504818</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>1584.323668133526</v>
+        <v>981.4940441053104</v>
       </c>
       <c r="B158">
-        <v>0.02764708854542286</v>
+        <v>0.02746673620634388</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>1587.874161612301</v>
+        <v>985.0445375840854</v>
       </c>
       <c r="B159">
-        <v>0.02546803085624838</v>
+        <v>0.02394865779137123</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>1590.304807137756</v>
+        <v>987.4751831095409</v>
       </c>
       <c r="B160">
-        <v>0.02397626165470956</v>
+        <v>0.02154020341490936</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>1588.951417814998</v>
+        <v>986.1217937867832</v>
       </c>
       <c r="B161">
-        <v>0.02480688236358619</v>
+        <v>0.02288123665209507</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>1584.088010501175</v>
+        <v>981.2583864729595</v>
       </c>
       <c r="B162">
-        <v>0.02779171958864446</v>
+        <v>0.0277002423470124</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>1582.973414015083</v>
+        <v>980.1437899868679</v>
       </c>
       <c r="B163">
-        <v>0.02847578507358739</v>
+        <v>0.02880466286279826</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>1581.429090749531</v>
+        <v>978.5994667213154</v>
       </c>
       <c r="B164">
-        <v>0.0294235883878281</v>
+        <v>0.03033488686652042</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>1580.796312462597</v>
+        <v>977.9666884343815</v>
       </c>
       <c r="B165">
-        <v>0.02981194578094226</v>
+        <v>0.03096188805551958</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>1585.29992372921</v>
+        <v>982.4702997009945</v>
       </c>
       <c r="B166">
-        <v>0.02704792753439944</v>
+        <v>0.02649939356532671</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>1574.94034649065</v>
+        <v>972.1107224624348</v>
       </c>
       <c r="B167">
-        <v>0.03340594975672673</v>
+        <v>0.0367643906112568</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>1579.11099905899</v>
+        <v>976.2813750307751</v>
       </c>
       <c r="B168">
-        <v>0.03084627950180419</v>
+        <v>0.03263181499472845</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>1581.634227167873</v>
+        <v>978.804603139658</v>
       </c>
       <c r="B169">
-        <v>0.02929768924383835</v>
+        <v>0.03013162328927121</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>1575.332732986717</v>
+        <v>972.5031089585018</v>
       </c>
       <c r="B170">
-        <v>0.03316512891970946</v>
+        <v>0.03637558649983041</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>1570.574010144977</v>
+        <v>967.7443861167621</v>
       </c>
       <c r="B171">
-        <v>0.03608571775079228</v>
+        <v>0.04109086346412949</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>1575.73671973875</v>
+        <v>972.907095710535</v>
       </c>
       <c r="B172">
-        <v>0.03291718861405757</v>
+        <v>0.03597528803969818</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>1577.405714403896</v>
+        <v>974.5760903756809</v>
       </c>
       <c r="B173">
-        <v>0.03189287025380194</v>
+        <v>0.03432153085319578</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>1573.469120513706</v>
+        <v>970.6394964854908</v>
       </c>
       <c r="B174">
-        <v>0.03430889079766597</v>
+        <v>0.03822218468522864</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>1581.82936228445</v>
+        <v>978.9997382562351</v>
       </c>
       <c r="B175">
-        <v>0.02917792823632004</v>
+        <v>0.02993826970455482</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>1571.694924067764</v>
+        <v>968.8653000395489</v>
       </c>
       <c r="B176">
-        <v>0.0353977750417146</v>
+        <v>0.03998018318816998</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>1568.795628201275</v>
+        <v>965.9660041730594</v>
       </c>
       <c r="B177">
-        <v>0.03717717077609151</v>
+        <v>0.04285300925234714</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>1565.770594965725</v>
+        <v>962.9409709375095</v>
       </c>
       <c r="B178">
-        <v>0.03903373577792546</v>
+        <v>0.04585042473675327</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>1559.688455354481</v>
+        <v>956.8588313262653</v>
       </c>
       <c r="B179">
-        <v>0.04276655015027764</v>
+        <v>0.05187703602644678</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>1544.373436879425</v>
+        <v>941.5438128512096</v>
       </c>
       <c r="B180">
-        <v>0.05216589392246573</v>
+        <v>0.06705223244466163</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>1550.343539964466</v>
+        <v>947.5139159362507</v>
       </c>
       <c r="B181">
-        <v>0.04850184014785885</v>
+        <v>0.06113663481740117</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>1536.822179716139</v>
+        <v>933.9925556879234</v>
       </c>
       <c r="B182">
-        <v>0.05680035532422822</v>
+        <v>0.07453454863278508</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>1530.259280037193</v>
+        <v>927.4296560089779</v>
       </c>
       <c r="B183">
-        <v>0.06082822837741875</v>
+        <v>0.08103753077826858</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>1532.861397724657</v>
+        <v>930.0317736964416</v>
       </c>
       <c r="B184">
-        <v>0.05923122092228572</v>
+        <v>0.07845916973515987</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>1535.32255662611</v>
+        <v>932.4929325978947</v>
       </c>
       <c r="B185">
-        <v>0.05772072463196687</v>
+        <v>0.07602048056173061</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>1539.993964027672</v>
+        <v>937.1643399994564</v>
       </c>
       <c r="B186">
-        <v>0.05485372423371471</v>
+        <v>0.07139172187079845</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>1533.59622691205</v>
+        <v>930.7666028838348</v>
       </c>
       <c r="B187">
-        <v>0.05878023144699418</v>
+        <v>0.07773104934335684</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>1537.123574744968</v>
+        <v>934.293950716753</v>
       </c>
       <c r="B188">
-        <v>0.05661537902192648</v>
+        <v>0.07423590526063295</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>1527.886494707374</v>
+        <v>925.0568706791591</v>
       </c>
       <c r="B189">
-        <v>0.06228448682391663</v>
+        <v>0.08338865320733424</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>1533.380038898496</v>
+        <v>930.5504148702812</v>
       </c>
       <c r="B190">
-        <v>0.05891291332799398</v>
+        <v>0.07794526361768395</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>1530.199311416654</v>
+        <v>927.3696873884392</v>
       </c>
       <c r="B191">
-        <v>0.06086503314398861</v>
+        <v>0.08109695190120658</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>1531.040384840278</v>
+        <v>928.2107608120632</v>
       </c>
       <c r="B192">
-        <v>0.06034883799481716</v>
+        <v>0.08026355725487144</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>1534.623500119953</v>
+        <v>931.7938760917377</v>
       </c>
       <c r="B193">
-        <v>0.05814975920533383</v>
+        <v>0.0767131548673895</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>1530.948335241585</v>
+        <v>928.1187112133694</v>
       </c>
       <c r="B194">
-        <v>0.06040533194052311</v>
+        <v>0.08035476646514261</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>1531.268674742489</v>
+        <v>928.4390507142734</v>
       </c>
       <c r="B195">
-        <v>0.06020872877626893</v>
+        <v>0.08003735157892156</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>1529.334042053728</v>
+        <v>926.5044180255127</v>
       </c>
       <c r="B196">
-        <v>0.06139607815780523</v>
+        <v>0.08195432158433558</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>1521.423004519253</v>
+        <v>918.5933804910374</v>
       </c>
       <c r="B197">
-        <v>0.06625134891717965</v>
+        <v>0.08979313344427986</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>1518.006109934358</v>
+        <v>915.1764859061432</v>
       </c>
       <c r="B198">
-        <v>0.06834841245576162</v>
+        <v>0.09317883268783989</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>1521.42247937253</v>
+        <v>918.5928553443146</v>
       </c>
       <c r="B199">
-        <v>0.0662516712174489</v>
+        <v>0.08979365379655235</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>1522.549169909267</v>
+        <v>919.719545881052</v>
       </c>
       <c r="B200">
-        <v>0.06556018320540924</v>
+        <v>0.08867724964559542</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>1532.287537764816</v>
+        <v>929.4579137366009</v>
       </c>
       <c r="B201">
-        <v>0.05958341814936863</v>
+        <v>0.07902779050576603</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>1529.295643638878</v>
+        <v>926.4660196106624</v>
       </c>
       <c r="B202">
-        <v>0.06141964456107607</v>
+        <v>0.08199236943184229</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>1522.775876533298</v>
+        <v>919.9462525050831</v>
       </c>
       <c r="B203">
-        <v>0.06542104569812057</v>
+        <v>0.08845261279291483</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>1523.624309849052</v>
+        <v>920.794685820837</v>
       </c>
       <c r="B204">
-        <v>0.06490033353472768</v>
+        <v>0.08761192544831298</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>1520.523020606546</v>
+        <v>917.693396578331</v>
       </c>
       <c r="B205">
-        <v>0.06680369942193054</v>
+        <v>0.0906849007425562</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>1522.072611015348</v>
+        <v>919.242986987133</v>
       </c>
       <c r="B206">
-        <v>0.06585266348409347</v>
+        <v>0.08914945768320548</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>1522.159401308803</v>
+        <v>919.3297772805881</v>
       </c>
       <c r="B207">
-        <v>0.06579939735153206</v>
+        <v>0.08906345976211116</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>1524.979290288</v>
+        <v>922.1496662597847</v>
       </c>
       <c r="B208">
-        <v>0.06406873630413967</v>
+        <v>0.08626931562140605</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>1522.532859008817</v>
+        <v>919.7032349806022</v>
       </c>
       <c r="B209">
-        <v>0.06557019375556372</v>
+        <v>0.08869341163185007</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>1521.404593031912</v>
+        <v>918.5749690036964</v>
       </c>
       <c r="B210">
-        <v>0.06626264866841114</v>
+        <v>0.08981137683962448</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>1521.243114333658</v>
+        <v>918.4134903054428</v>
       </c>
       <c r="B211">
-        <v>0.06636175359598562</v>
+        <v>0.08997138128019033</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>1514.620771180897</v>
+        <v>911.7911471526813</v>
       </c>
       <c r="B212">
-        <v>0.07042610911547675</v>
+        <v>0.09653326419633934</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>1507.781722705869</v>
+        <v>904.9520986776542</v>
       </c>
       <c r="B213">
-        <v>0.07462346400578512</v>
+        <v>0.1033098739726361</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>1502.624288093357</v>
+        <v>899.7946640651417</v>
       </c>
       <c r="B214">
-        <v>0.07778875570847177</v>
+        <v>0.108420222574987</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>1490.788233410625</v>
+        <v>887.95860938241</v>
       </c>
       <c r="B215">
-        <v>0.08505294197443103</v>
+        <v>0.1201482172176137</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>1490.739845451026</v>
+        <v>887.9102214228105</v>
       </c>
       <c r="B216">
-        <v>0.08508263929849569</v>
+        <v>0.1201961634079756</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>1492.245260831027</v>
+        <v>889.4156368028116</v>
       </c>
       <c r="B217">
-        <v>0.08415871506689154</v>
+        <v>0.1187044920711289</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>1483.354805063515</v>
+        <v>880.5251810352993</v>
       </c>
       <c r="B218">
-        <v>0.08961508785458272</v>
+        <v>0.1275137803354031</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>1484.324747141509</v>
+        <v>881.4951231132936</v>
       </c>
       <c r="B219">
-        <v>0.08901980166246815</v>
+        <v>0.1265526935713335</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>1479.495544906764</v>
+        <v>876.6659208785486</v>
       </c>
       <c r="B220">
-        <v>0.09198364607595799</v>
+        <v>0.1313378064704723</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>1486.5123868995</v>
+        <v>883.6827628712845</v>
       </c>
       <c r="B221">
-        <v>0.08767717330269487</v>
+        <v>0.1243850263841292</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>1486.497130211501</v>
+        <v>883.6675061832857</v>
       </c>
       <c r="B222">
-        <v>0.08768653684708483</v>
+        <v>0.1244001437826129</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>1486.371416356473</v>
+        <v>883.5417923282575</v>
       </c>
       <c r="B223">
-        <v>0.08776369168318654</v>
+        <v>0.1245247099034863</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>1482.391697730927</v>
+        <v>879.562073702712</v>
       </c>
       <c r="B224">
-        <v>0.09020617933274488</v>
+        <v>0.1284680947534782</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>1487.363975014596</v>
+        <v>884.5343509863806</v>
       </c>
       <c r="B225">
-        <v>0.08715452493246045</v>
+        <v>0.1235412130426664</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>1491.587757539062</v>
+        <v>888.7581335108471</v>
       </c>
       <c r="B226">
-        <v>0.08456224703014614</v>
+        <v>0.1193559925324202</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>1492.49983942142</v>
+        <v>889.6702153932047</v>
       </c>
       <c r="B227">
-        <v>0.08400247159307261</v>
+        <v>0.118452237715747</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>1490.155462961702</v>
+        <v>887.3258389334869</v>
       </c>
       <c r="B228">
-        <v>0.08544129455709337</v>
+        <v>0.1207752106401611</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>1489.877730887441</v>
+        <v>887.0481068592262</v>
       </c>
       <c r="B229">
-        <v>0.0856117481054709</v>
+        <v>0.1210504070942436</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>1487.328739237098</v>
+        <v>884.4991152088833</v>
       </c>
       <c r="B230">
-        <v>0.08717615031843806</v>
+        <v>0.1235761271268604</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>1483.079433707504</v>
+        <v>880.2498096792889</v>
       </c>
       <c r="B231">
-        <v>0.08978409255048769</v>
+        <v>0.1277866376239668</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>1480.282079173236</v>
+        <v>877.4524551450205</v>
       </c>
       <c r="B232">
-        <v>0.09150092344841332</v>
+        <v>0.1305584530532493</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>1479.201452298073</v>
+        <v>876.3718282698584</v>
       </c>
       <c r="B233">
-        <v>0.09216414063653866</v>
+        <v>0.1316292140916442</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>1479.89887982419</v>
+        <v>877.0692557959748</v>
       </c>
       <c r="B234">
-        <v>0.09173610582320613</v>
+        <v>0.1309381538938701</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>1480.593430874853</v>
+        <v>877.7638068466377</v>
       </c>
       <c r="B235">
-        <v>0.09130983639995027</v>
+        <v>0.1302499439100914</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>1487.945116845875</v>
+        <v>885.1154928176594</v>
       </c>
       <c r="B236">
-        <v>0.08679785857508815</v>
+        <v>0.1229653768821772</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>1486.172822533159</v>
+        <v>883.3431985049439</v>
       </c>
       <c r="B237">
-        <v>0.08788557541577224</v>
+        <v>0.1247214906178641</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>1491.352719573288</v>
+        <v>888.5230955450726</v>
       </c>
       <c r="B238">
-        <v>0.08470649776307404</v>
+        <v>0.1195888846639037</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>1496.230857921748</v>
+        <v>893.4012338935328</v>
       </c>
       <c r="B239">
-        <v>0.08171261960483667</v>
+        <v>0.1147552824247893</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>1493.984359143285</v>
+        <v>891.1547351150704</v>
       </c>
       <c r="B240">
-        <v>0.08309137173216585</v>
+        <v>0.1169812712652188</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>1494.269836841135</v>
+        <v>891.4402128129196</v>
       </c>
       <c r="B241">
-        <v>0.08291616443315097</v>
+        <v>0.1166983999030368</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>1489.608205018549</v>
+        <v>886.7785809903336</v>
       </c>
       <c r="B242">
-        <v>0.08577716522862655</v>
+        <v>0.1213174722634367</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>1482.714442519455</v>
+        <v>879.8848184912396</v>
       </c>
       <c r="B243">
-        <v>0.09000809996228953</v>
+        <v>0.1281482965392718</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>1477.175278691559</v>
+        <v>874.3456546633435</v>
       </c>
       <c r="B244">
-        <v>0.09340767176911857</v>
+        <v>0.1336368892705116</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>1488.08448228064</v>
+        <v>885.2548582524252</v>
       </c>
       <c r="B245">
-        <v>0.08671232530371409</v>
+        <v>0.1228272838168685</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>1499.329916445641</v>
+        <v>896.5002924174261</v>
       </c>
       <c r="B246">
-        <v>0.07981062278494067</v>
+        <v>0.1116845174832894</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>1504.754731340437</v>
+        <v>901.9251073122215</v>
       </c>
       <c r="B247">
-        <v>0.0764812307780216</v>
+        <v>0.1063092297097186</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>1522.622361822157</v>
+        <v>919.7927377939415</v>
       </c>
       <c r="B248">
-        <v>0.06551526285799258</v>
+        <v>0.08860472595545876</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>1520.155887080459</v>
+        <v>917.3262630522441</v>
       </c>
       <c r="B249">
-        <v>0.06702902165889713</v>
+        <v>0.09104868243692077</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>1554.914618326454</v>
+        <v>952.0849942982387</v>
       </c>
       <c r="B250">
-        <v>0.04569641506763999</v>
+        <v>0.05660728918852054</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>1549.362160099773</v>
+        <v>946.532536071558</v>
       </c>
       <c r="B251">
-        <v>0.04910414609573432</v>
+        <v>0.06210905494421004</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>1545.6746844137</v>
+        <v>942.8450603854847</v>
       </c>
       <c r="B252">
-        <v>0.0513672743891439</v>
+        <v>0.06576286495525874</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>1555.123496779232</v>
+        <v>952.2938727510166</v>
       </c>
       <c r="B253">
-        <v>0.0455682193108109</v>
+        <v>0.05640031774061793</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>1548.075935640363</v>
+        <v>945.2463116121482</v>
       </c>
       <c r="B254">
-        <v>0.04989354546093139</v>
+        <v>0.06338353651543671</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>1550.426298835306</v>
+        <v>947.5966748070907</v>
       </c>
       <c r="B255">
-        <v>0.04845104823543045</v>
+        <v>0.06105463151310275</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>1559.026140966444</v>
+        <v>956.1965169382286</v>
       </c>
       <c r="B256">
-        <v>0.04317303484558266</v>
+        <v>0.05253330365977926</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>1531.504131802349</v>
+        <v>940.3522248067451</v>
       </c>
       <c r="B257">
-        <v>0.06006422083115481</v>
+        <v>0.0682329416063121</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>1532.965222069053</v>
+        <v>941.0569467939926</v>
       </c>
       <c r="B258">
-        <v>0.05916750041770424</v>
+        <v>0.06753465354390242</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>1572.01267772141</v>
+        <v>963.1593148346734</v>
       </c>
       <c r="B259">
-        <v>0.0352027588992041</v>
+        <v>0.04563407426146149</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>1590.612103499202</v>
+        <v>973.6975097741675</v>
       </c>
       <c r="B260">
-        <v>0.02378766350539085</v>
+        <v>0.03519209024683378</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>1590.017120919852</v>
+        <v>973.3604003127408</v>
       </c>
       <c r="B261">
-        <v>0.02415282439702726</v>
+        <v>0.03552612198828553</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>1584.846650816231</v>
+        <v>970.4308785881591</v>
       </c>
       <c r="B262">
-        <v>0.02732611642059968</v>
+        <v>0.03842889795648707</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>1580.891307525067</v>
+        <v>968.1898320551705</v>
       </c>
       <c r="B263">
-        <v>0.02975364410469727</v>
+        <v>0.04064948432899795</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>1570.868821449308</v>
+        <v>965.224363366448</v>
       </c>
       <c r="B264">
-        <v>0.03590478210243864</v>
+        <v>0.04358787907509165</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>1571.000810868768</v>
+        <v>965.2575024760595</v>
       </c>
       <c r="B265">
-        <v>0.03582377574062334</v>
+        <v>0.04355504251676179</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>1567.893937205164</v>
+        <v>964.1511084510317</v>
       </c>
       <c r="B266">
-        <v>0.03773056897554738</v>
+        <v>0.04465133545777789</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>1565.447978680222</v>
+        <v>963.3055289609662</v>
       </c>
       <c r="B267">
-        <v>0.03923173628173726</v>
+        <v>0.04548919503136306</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>1596.346218948452</v>
+        <v>973.9871975107422</v>
       </c>
       <c r="B268">
-        <v>0.02026844330825572</v>
+        <v>0.03490504728246324</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>1585.265027378886</v>
+        <v>970.1563769055834</v>
       </c>
       <c r="B269">
-        <v>0.02706934460246402</v>
+        <v>0.03870089351150396</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>1587.564730798094</v>
+        <v>970.9513953103057</v>
       </c>
       <c r="B270">
-        <v>0.02565793899127111</v>
+        <v>0.03791313341396274</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>1605.99576849231</v>
+        <v>977.3230926616421</v>
       </c>
       <c r="B271">
-        <v>0.01434618904802065</v>
+        <v>0.03159960796954775</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>1588.181017582505</v>
+        <v>971.1644485814801</v>
       </c>
       <c r="B272">
-        <v>0.0252797029898999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>0.03770202526264832</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273">
-        <v>1628.669334380566</v>
+        <v>987.9906945687463</v>
       </c>
       <c r="B273">
-        <v>0.0004306563523084339</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>0.02102939843860296</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274">
-        <v>1635.824798552929</v>
+        <v>990.9694759708574</v>
       </c>
       <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>0.01807781252066332</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275">
-        <v>1656.815425841747</v>
+        <v>999.7077616614034</v>
       </c>
       <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>0.009419305060911154</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276">
-        <v>1663.607997863232</v>
+        <v>1002.535473005169</v>
       </c>
       <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>0.006617409971751198</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277">
-        <v>1650.64109226936</v>
+        <v>997.1374196720054</v>
       </c>
       <c r="B277">
-        <v>0.007794447736802823</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>0.01196618050964982</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278">
-        <v>1640.897077529369</v>
+        <v>994.0792306597989</v>
       </c>
       <c r="B278">
-        <v>0.01365160564449841</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>0.01499644906726527</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279">
-        <v>1634.878635375439</v>
+        <v>992.9015146728318</v>
       </c>
       <c r="B279">
-        <v>0.01726931015280853</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>0.01616341281962419</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280">
-        <v>1622.311128208323</v>
+        <v>989.5052179139268</v>
       </c>
       <c r="B280">
-        <v>0.02482367823907505</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>0.01952870228988335</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281">
-        <v>1625.893679106517</v>
+        <v>990.4630737792861</v>
       </c>
       <c r="B281">
-        <v>0.02267019562610628</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>0.01857959139453302</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282">
-        <v>1581.718630075962</v>
+        <v>971.7337825339448</v>
       </c>
       <c r="B282">
-        <v>0.04922395654051326</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>0.03713788917817129</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283">
-        <v>1578.161181942135</v>
+        <v>969.132460404576</v>
       </c>
       <c r="B283">
-        <v>0.05136234980286558</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>0.03971546192641939</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284">
-        <v>1582.702689588577</v>
+        <v>972.4533589523446</v>
       </c>
       <c r="B284">
-        <v>0.04863243527235439</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>0.0364248823016261</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285">
-        <v>1583.407275170595</v>
+        <v>972.9685749154698</v>
       </c>
       <c r="B285">
-        <v>0.04820890666289668</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>0.03591437012359899</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286">
-        <v>1587.804206267506</v>
+        <v>976.1837543737304</v>
       </c>
       <c r="B286">
-        <v>0.04556589755103924</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>0.03272854440106521</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287">
-        <v>1586.849280730397</v>
+        <v>975.4854816686523</v>
       </c>
       <c r="B287">
-        <v>0.0461399062948874</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>0.03342044206154127</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288">
-        <v>1591.008831024677</v>
+        <v>978.5270805400025</v>
       </c>
       <c r="B288">
-        <v>0.04363958753011676</v>
+        <v>0.03040661218119611</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>1570.839083940298</v>
+        <v>963.7783034783017</v>
       </c>
       <c r="B289">
-        <v>0.05576368594169301</v>
+        <v>0.04502073681998187</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>1568.991841972381</v>
+        <v>962.427539889158</v>
       </c>
       <c r="B290">
-        <v>0.05687406889866908</v>
+        <v>0.04635916829580511</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>1562.053855821997</v>
+        <v>957.3542580794704</v>
       </c>
       <c r="B291">
-        <v>0.06104451419545498</v>
+        <v>0.05138613238810186</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>1575.545684114606</v>
+        <v>967.2199230682265</v>
       </c>
       <c r="B292">
-        <v>0.05293453377342194</v>
+        <v>0.04161053830412964</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>1572.609712556512</v>
+        <v>965.0730448853385</v>
       </c>
       <c r="B293">
-        <v>0.05469935551139449</v>
+        <v>0.04373781605860105</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>1575.793837413699</v>
+        <v>967.4013808559787</v>
       </c>
       <c r="B294">
-        <v>0.05278536804482969</v>
+        <v>0.0414307371778535</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>1579.253127202899</v>
+        <v>969.9309264015567</v>
       </c>
       <c r="B295">
-        <v>0.05070597807216604</v>
+        <v>0.03892428571222273</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>1578.086723089725</v>
+        <v>969.0780136626374</v>
       </c>
       <c r="B296">
-        <v>0.05140710725324216</v>
+        <v>0.03976941158404446</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>1576.156388193876</v>
+        <v>967.6664898138654</v>
       </c>
       <c r="B297">
-        <v>0.05256743763054772</v>
+        <v>0.04116804859444034</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>1578.510773569853</v>
+        <v>969.3880932074201</v>
       </c>
       <c r="B298">
-        <v>0.05115220917588736</v>
+        <v>0.03946216298326666</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>1582.667076036841</v>
+        <v>972.4273171615016</v>
       </c>
       <c r="B299">
-        <v>0.04865384269031681</v>
+        <v>0.03645068633782544</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>1576.323635221035</v>
+        <v>967.78878629619</v>
       </c>
       <c r="B300">
-        <v>0.05246690491648676</v>
+        <v>0.04104686864656404</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>1586.184422233269</v>
+        <v>975.5908625545065</v>
       </c>
       <c r="B301">
-        <v>0.04653955482866567</v>
+        <v>0.03331602327522576</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>1586.934064665005</v>
+        <v>976.1847769739192</v>
       </c>
       <c r="B302">
-        <v>0.04608894240512673</v>
+        <v>0.03272753113694493</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>1598.501319685147</v>
+        <v>985.349092197613</v>
       </c>
       <c r="B303">
-        <v>0.03913582903046231</v>
+        <v>0.02364688368069146</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>1606.30357531564</v>
+        <v>991.5305354120295</v>
       </c>
       <c r="B304">
-        <v>0.0344458686308281</v>
+        <v>0.01752187540338535</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>1605.185362675354</v>
+        <v>990.6446162285368</v>
       </c>
       <c r="B305">
-        <v>0.03511802976597644</v>
+        <v>0.01839970637969546</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>1598.241668858692</v>
+        <v>984.5593468577601</v>
       </c>
       <c r="B306">
-        <v>0.03929190595891396</v>
+        <v>0.02442941885504701</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>1578.422668137715</v>
+        <v>973.3579202325084</v>
       </c>
       <c r="B307">
-        <v>0.05120516962826016</v>
+        <v>0.03552857942604315</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>1589.315506158635</v>
+        <v>980.3665708679893</v>
       </c>
       <c r="B308">
-        <v>0.04465745043304614</v>
+        <v>0.0285839159120358</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>1560.991071848438</v>
+        <v>962.096482538078</v>
       </c>
       <c r="B309">
-        <v>0.06168335698469662</v>
+        <v>0.04668720318107245</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>1554.347720233962</v>
+        <v>957.8113264966943</v>
       </c>
       <c r="B310">
-        <v>0.06567669653524466</v>
+        <v>0.05093323688430385</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>1560.320743559167</v>
+        <v>961.6641011912562</v>
       </c>
       <c r="B311">
-        <v>0.06208629342773575</v>
+        <v>0.04711563700087362</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>1537.352030216024</v>
+        <v>946.8486094851233</v>
       </c>
       <c r="B312">
-        <v>0.0758928592609398</v>
+        <v>0.06179586719708174</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>1544.443388520047</v>
+        <v>951.4227429408767</v>
       </c>
       <c r="B313">
-        <v>0.07163022148020537</v>
+        <v>0.05726349436663158</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>1535.371851859853</v>
+        <v>945.5713365454413</v>
       </c>
       <c r="B314">
-        <v>0.07708315069901539</v>
+        <v>0.06306147897358172</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>1522.179211689398</v>
+        <v>937.0616978857853</v>
       </c>
       <c r="B315">
-        <v>0.0850132881997967</v>
+        <v>0.07149342688919436</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>1535.975470928714</v>
+        <v>945.9606884945371</v>
       </c>
       <c r="B316">
-        <v>0.07672031337818241</v>
+        <v>0.06267568170451765</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>1536.110571114585</v>
+        <v>946.0478320647218</v>
       </c>
       <c r="B317">
-        <v>0.07663910423152964</v>
+        <v>0.06258933373201658</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>1534.38005545573</v>
+        <v>944.931598864887</v>
       </c>
       <c r="B318">
-        <v>0.07767932263699429</v>
+        <v>0.06369537601878339</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>1530.532554028794</v>
+        <v>942.449847944472</v>
       </c>
       <c r="B319">
-        <v>0.07999206784612822</v>
+        <v>0.06615446921150281</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>1537.63588839607</v>
+        <v>947.0317063111999</v>
       </c>
       <c r="B320">
-        <v>0.07572223121610555</v>
+        <v>0.0616144419964666</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>1536.242231367395</v>
+        <v>946.1327567774989</v>
       </c>
       <c r="B321">
-        <v>0.07655996283945976</v>
+        <v>0.06250518435934349</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>1537.812012968824</v>
+        <v>947.1453118104674</v>
       </c>
       <c r="B322">
-        <v>0.07561636218146506</v>
+        <v>0.06150187368527693</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>1537.555521367357</v>
+        <v>946.9798672277667</v>
       </c>
       <c r="B323">
-        <v>0.07577054008984041</v>
+        <v>0.06166580780281672</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>1536.361941037938</v>
+        <v>946.2099730152823</v>
       </c>
       <c r="B324">
-        <v>0.07648800497997754</v>
+        <v>0.06242867308533173</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>1533.466918854282</v>
+        <v>944.3425990570523</v>
       </c>
       <c r="B325">
-        <v>0.07822821192017926</v>
+        <v>0.06427899841458651</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>1527.469943402574</v>
+        <v>940.4743745405414</v>
       </c>
       <c r="B326">
-        <v>0.08183301272626486</v>
+        <v>0.06811190706718895</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>1535.399192957446</v>
+        <v>945.5889723528363</v>
       </c>
       <c r="B327">
-        <v>0.07706671587925706</v>
+        <v>0.06304400417643097</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>1541.96561747627</v>
+        <v>949.8245081681945</v>
       </c>
       <c r="B328">
-        <v>0.07311961744786122</v>
+        <v>0.05884713767972172</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>1539.98998888366</v>
+        <v>948.4127904026248</v>
       </c>
       <c r="B329">
-        <v>0.07430717400875042</v>
+        <v>0.0602459668365064</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>1539.960983073041</v>
+        <v>948.3922778515555</v>
       </c>
       <c r="B330">
-        <v>0.07432460949274411</v>
+        <v>0.06026629211342471</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>1535.615980600641</v>
+        <v>945.3195457606055</v>
       </c>
       <c r="B331">
-        <v>0.07693640414507885</v>
+        <v>0.06331097097533178</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>1532.377956008241</v>
+        <v>943.0296547560431</v>
       </c>
       <c r="B332">
-        <v>0.07888279091200867</v>
+        <v>0.06557995588234544</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>1533.963792329356</v>
+        <v>944.1511386184432</v>
       </c>
       <c r="B333">
-        <v>0.07792953971151417</v>
+        <v>0.06446871087017014</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>1527.10217282705</v>
+        <v>939.2986860422827</v>
       </c>
       <c r="B334">
-        <v>0.08205408077594711</v>
+        <v>0.06927686184127357</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>1525.045756613538</v>
+        <v>937.8444138912894</v>
       </c>
       <c r="B335">
-        <v>0.0832901990298589</v>
+        <v>0.07071785687322929</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>1528.016334658191</v>
+        <v>939.9451700000502</v>
       </c>
       <c r="B336">
-        <v>0.08150457522396926</v>
+        <v>0.06863628011058065</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>1526.490610485599</v>
+        <v>938.8661967067458</v>
       </c>
       <c r="B337">
-        <v>0.082421692822918</v>
+        <v>0.06970540266388159</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>1528.395726954267</v>
+        <v>940.2134715466239</v>
       </c>
       <c r="B338">
-        <v>0.08127652132150964</v>
+        <v>0.06837042808596849</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>1523.969885071442</v>
+        <v>937.0835708229281</v>
       </c>
       <c r="B339">
-        <v>0.08393690879771165</v>
+        <v>0.07147175364616654</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>1530.402379205153</v>
+        <v>941.6325512377955</v>
       </c>
       <c r="B340">
-        <v>0.0800703163420533</v>
+        <v>0.06696430421601007</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>1535.678162386343</v>
+        <v>945.3635199515559</v>
       </c>
       <c r="B341">
-        <v>0.07689902647811497</v>
+        <v>0.06326739825708194</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>1531.389132788107</v>
+        <v>942.3303711859919</v>
       </c>
       <c r="B342">
-        <v>0.07947717565974011</v>
+        <v>0.0662728551788655</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>1525.062815719143</v>
+        <v>937.5591889349855</v>
       </c>
       <c r="B343">
-        <v>0.08327994474782441</v>
+        <v>0.07100047780132912</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>1524.445395045773</v>
+        <v>937.0947373835481</v>
       </c>
       <c r="B344">
-        <v>0.08365107825653773</v>
+        <v>0.0714606890332834</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>1528.654530518547</v>
+        <v>940.2610380677618</v>
       </c>
       <c r="B345">
-        <v>0.0811209536850156</v>
+        <v>0.06832329583455299</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>1532.050198190704</v>
+        <v>942.815411749307</v>
       </c>
       <c r="B346">
-        <v>0.07907980716701446</v>
+        <v>0.06579224290725139</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>1544.444757574097</v>
+        <v>952.139155807916</v>
       </c>
       <c r="B347">
-        <v>0.07162939853751027</v>
+        <v>0.0565536221590619</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>1539.400213085905</v>
+        <v>948.3444229541458</v>
       </c>
       <c r="B348">
-        <v>0.07466169009578061</v>
+        <v>0.0603137101083131</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>1567.852054410473</v>
+        <v>969.7471754280963</v>
       </c>
       <c r="B349">
-        <v>0.05755919878706373</v>
+        <v>0.03910635908802973</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>1597.466378316909</v>
+        <v>992.9054462265559</v>
       </c>
       <c r="B350">
-        <v>0.0397579355420723</v>
+        <v>0.0161595171599429</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>1582.949659795195</v>
+        <v>981.5481569420882</v>
       </c>
       <c r="B351">
-        <v>0.04848398070436988</v>
+        <v>0.02741311740541408</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>1594.206048206121</v>
+        <v>990.3546967458316</v>
       </c>
       <c r="B352">
-        <v>0.04171773022626235</v>
+        <v>0.01868697897441585</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>1612.373588383824</v>
+        <v>1004.568240190703</v>
       </c>
       <c r="B353">
-        <v>0.03079716468375615</v>
+        <v>0.004603201411491509</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>1604.25480535689</v>
+        <v>998.2164350401946</v>
       </c>
       <c r="B354">
-        <v>0.03567739069695253</v>
+        <v>0.01089701626559669</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>1599.304340065152</v>
+        <v>994.3566887469059</v>
       </c>
       <c r="B355">
-        <v>0.03865313095433098</v>
+        <v>0.01472152409890637</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>1600.919169724614</v>
+        <v>994.9953252167469</v>
       </c>
       <c r="B356">
-        <v>0.03768245176696472</v>
+        <v>0.01408871821065638</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>1582.214634612397</v>
+        <v>986.4304014381385</v>
       </c>
       <c r="B357">
-        <v>0.04892580665359747</v>
+        <v>0.02257544650674803</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>1586.144871816233</v>
+        <v>988.2244749006247</v>
       </c>
       <c r="B358">
-        <v>0.04656332870874236</v>
+        <v>0.02079775245915161</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>1621.436346814231</v>
+        <v>1004.334316485784</v>
       </c>
       <c r="B359">
-        <v>0.0253495120864814</v>
+        <v>0.00483498945502614</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>1615.914776548937</v>
+        <v>1001.813831799886</v>
       </c>
       <c r="B360">
-        <v>0.02866854533973895</v>
+        <v>0.007332462784222504</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>1597.70913498123</v>
+        <v>993.5033261713004</v>
       </c>
       <c r="B361">
-        <v>0.03961201374761547</v>
+        <v>0.01556709570052472</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>1597.650200143651</v>
+        <v>993.476423614881</v>
       </c>
       <c r="B362">
-        <v>0.0396474396638502</v>
+        <v>0.01559375264373908</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>1546.912837903094</v>
+        <v>960.4368982252097</v>
       </c>
       <c r="B363">
-        <v>0.0701458276889888</v>
+        <v>0.04833163592931788</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>1499.97113324989</v>
+        <v>927.5800253685927</v>
       </c>
       <c r="B364">
-        <v>0.09836263400002865</v>
+        <v>0.08088853425102616</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>1539.73322170515</v>
+        <v>955.4115217861151</v>
       </c>
       <c r="B365">
-        <v>0.07446151756735275</v>
+        <v>0.05331113201434956</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>1537.710217605423</v>
+        <v>953.9955189165091</v>
       </c>
       <c r="B366">
-        <v>0.07567755169457813</v>
+        <v>0.05471420715330721</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>1537.724355633449</v>
+        <v>954.0054148372625</v>
       </c>
       <c r="B367">
-        <v>0.07566905328146412</v>
+        <v>0.0547044015796857</v>
       </c>
       <c r="C367" s="2">
-        <v>91</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
